--- a/validation_report.xlsx
+++ b/validation_report.xlsx
@@ -476,10 +476,10 @@
         <v>6971</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>54687</v>
       </c>
       <c r="C3" t="n">
-        <v>1093</v>
+        <v>546</v>
       </c>
       <c r="D3" t="n">
-        <v>1093</v>
+        <v>546</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -524,17 +524,17 @@
         <v>35451</v>
       </c>
       <c r="C4" t="n">
-        <v>709</v>
+        <v>354</v>
       </c>
       <c r="D4" t="n">
-        <v>708</v>
+        <v>354</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>99.86%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -548,13 +548,13 @@
         <v>20982859</v>
       </c>
       <c r="C5" t="n">
-        <v>419657</v>
+        <v>209828</v>
       </c>
       <c r="D5" t="n">
-        <v>419641</v>
+        <v>209819</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         <v>4306508</v>
       </c>
       <c r="C6" t="n">
-        <v>86130</v>
+        <v>43065</v>
       </c>
       <c r="D6" t="n">
-        <v>86130</v>
+        <v>43065</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -596,13 +596,13 @@
         <v>25386476</v>
       </c>
       <c r="C7" t="n">
-        <v>507728</v>
+        <v>253862</v>
       </c>
       <c r="D7" t="n">
-        <v>507711</v>
+        <v>253853</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2938836-1996-00019</t>
+          <t>1721493-1996-00004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6000002-2007-02750</t>
+          <t>2126317-2008-00001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -733,27 +733,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3010511300-2023-00126</t>
+          <t>3012236936-2024-000237</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>device-event-0002-of-0006.json</t>
+          <t>device-event-0002-of-0007.json</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>report_source_code -&gt; report_source_code</t>
+          <t>event_type -&gt; event_type</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Manufacturer report</t>
+          <t>Injury</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Distributor report</t>
+          <t>Malfunction</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3012236936-2024-000217</t>
+          <t>3012236936-2024-000185</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>device-event-0002-of-0007.json</t>
+          <t>device-event-0006-of-0007.json</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3012236936-2024-000252</t>
+          <t>3012236936-2024-000244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>device-event-0004-of-0007.json</t>
+          <t>device-event-0007-of-0007.json</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3012236936-2024-000211</t>
+          <t>3012236936-2024-000241</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>device-event-0003-of-0007.json</t>
+          <t>device-event-0007-of-0007.json</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Injury</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Injury</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3012236936-2024-000181</t>
+          <t>3012236936-2024-000343</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>device-event-0006-of-0007.json</t>
+          <t>device-event-0003-of-0008.json</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -876,12 +876,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Injury</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Injury</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3012236936-2024-000216</t>
+          <t>3010757606-2024-000027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>device-event-0007-of-0007.json</t>
+          <t>device-event-0002-of-0007.json</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Death</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Injury</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3012236936-2024-000322</t>
+          <t>3012236936-2024-000142</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>device-event-0001-of-0008.json</t>
+          <t>device-event-0001-of-0007.json</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -940,236 +940,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Injury</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000293</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>device-event-0001-of-0008.json</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000299</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>device-event-0001-of-0008.json</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000340</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>device-event-0006-of-0008.json</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000335</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>device-event-0003-of-0008.json</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000127</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>device-event-0004-of-0007.json</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000147</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>device-event-0001-of-0007.json</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Adverse Event</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3012236936-2024-000126</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>device-event-0006-of-0007.json</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>event_type -&gt; event_type</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Malfunction</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Injury</t>
         </is>
       </c>
     </row>
